--- a/data/case1/18/V1_13.xlsx
+++ b/data/case1/18/V1_13.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.99999998774257981</v>
+        <v>0.99999999434228881</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.99875400559209193</v>
+        <v>0.99826174156708991</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.99684253519192756</v>
+        <v>0.99515616211253743</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>1.0012919883685103</v>
+        <v>0.99872574874011355</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.99264386427754592</v>
+        <v>0.98916435770263056</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.9747592194318605</v>
+        <v>0.96813710547393983</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.97107413012533139</v>
+        <v>0.96412200137206749</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.96526476324649135</v>
+        <v>0.95890604309932181</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.95972630334845088</v>
+        <v>0.95386990388721715</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.95510159831147634</v>
+        <v>0.94975644189193198</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.95440300048507432</v>
+        <v>0.9481606427293916</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.95332945369635713</v>
+        <v>0.94538137079262863</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.95108205515164523</v>
+        <v>0.93409613795980462</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.95124964319747296</v>
+        <v>0.92992916958025928</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.95249064904491754</v>
+        <v>0.92733786865454937</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.95440048859974458</v>
+        <v>0.92483150607213094</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.96108112578858262</v>
+        <v>0.92112370011351297</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.9599722768813912</v>
+        <v>0.92001478923547142</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.99738086277891647</v>
+        <v>0.99645163170266027</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.98726978604508853</v>
+        <v>0.98235065719314396</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.9858713783048334</v>
+        <v>0.97926605663889132</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.98460689731152407</v>
+        <v>0.97530051041104049</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.98980873492197863</v>
+        <v>0.98812209487843372</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.97678885698294793</v>
+        <v>0.97510196481348377</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.97033204899915759</v>
+        <v>0.96864509250660191</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.9717738320720104</v>
+        <v>0.96570809874385533</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.96798157810370511</v>
+        <v>0.96257092011383816</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.95411039069258563</v>
+        <v>0.95184758322152174</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.94445645850705828</v>
+        <v>0.94454727350792456</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.93967837712804347</v>
+        <v>0.94077262375797122</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.93985419330683784</v>
+        <v>0.93312004400819049</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.94119953218579089</v>
+        <v>0.93144075884011701</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.94526457756494653</v>
+        <v>0.9309207475010175</v>
       </c>
     </row>
   </sheetData>
